--- a/data/annotations/new_annotation_structure_out/iteration_14/iteration_14_mistral-large-2411-3.xlsx
+++ b/data/annotations/new_annotation_structure_out/iteration_14/iteration_14_mistral-large-2411-3.xlsx
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
